--- a/line_station_area.xlsx
+++ b/line_station_area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suumo_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1749C04-3132-4158-ACB9-23401AC954EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563D317-CC3B-433D-8F34-D2C8A1821463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3341,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3C06AA-187C-474E-82F1-F9C7C8B0B7BE}">
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="K488" sqref="K488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
